--- a/client/public/Service Matrix's 2026.xlsx
+++ b/client/public/Service Matrix's 2026.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="135">
   <si>
-    <t xml:space="preserve">* guest can pay with their card and email us the receipt </t>
+    <t>** If your guest has hung up before you were able to complete the needed actions you will need to call them back to finish the support needed**</t>
+  </si>
+  <si>
+    <t>** After verifing the booking, confirm the guest's phone number to call them back in case they become disconnected**</t>
   </si>
   <si>
     <t xml:space="preserve">Hotel &amp; Reservation Issues </t>
@@ -39,10 +42,10 @@
     <t>Reservation not found at check-in</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Call Supplier, 2. If unconfirmed by the Supplier in 20 minutes, 3. Create a Voucher and Rebook (if current hotel has inventory) or Relocate by Booking at a near by hotel. ** Do your best to upgrade the client's room type  to use full voucher value for their new reservation** The exception would be in they are lowering the number of nights they will expect a refund of the unused night(s). If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 5. Call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 5. If the guest declines support and requests a refund; then call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 6. Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). </t>
+    <t>1. Call Supplier, 2. If unconfirmed by the Supplier in 20 minutes, 3. Create a Voucher and Rebook (if current hotel has inventory) or Relocate by Booking at a near by hotel. ** Do your best to upgrade the client's room type  to use full voucher value for their new reservation** The exception would be in they are lowering the number of nights they will expect a refund of the unused night(s). If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 5. Call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 5. If the guest declines support and requests a refund; then call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 6. Process a refund via the queue for the client and advise of the refund timeline (2-7 business days).</t>
   </si>
   <si>
-    <t>Yes - Only for same day check in's. NO SLACK FOR FUTURE DATES.</t>
+    <t>YES - Only for same day check in's. NO SLACK FOR FUTURE DATES.</t>
   </si>
   <si>
     <t>YES - for a voucher if rebooking</t>
@@ -51,13 +54,16 @@
     <t>NONE</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>YES</t>
   </si>
   <si>
     <t>Overbooking leading to relocation (“walked” reservation) or Hotel Is Closed Down</t>
   </si>
   <si>
     <t xml:space="preserve">1. Call Supplier, 2. If unconfirmed by the Supplier in 10 minutes, 3. Create a Voucher and Rebook (if current hotel has inventory) or Relocate by Booking at a near by hotel. ** Do your best to upgrade the client's room type  to use full voucher value for their new reservation** The exception would be in they are lowering the number of nights they will expect a refund of the unused night(s). If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 5. Call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 5. If the guest declines support and requests a refund; then call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 6. Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). </t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t xml:space="preserve">Incorrect guest name or modifying name </t>
@@ -195,17 +201,34 @@
         <b/>
         <color rgb="FF0000FF"/>
       </rPr>
-      <t>IF THE RESERVATION IS MORE YOU WILL ASK THE GUEST TO PAY THE DIFFERNCE AND OPEN A TICKET FOR SUPERVISOR REVIEW. OCCUPANCY ERROR FROM SALES AGENTS WILL BE REFUNDED TO THE GUEST; PLEASE ADVISE THE GUEST OF THIS AND LET THEM KNOW IT WILL BE REVIEWED IN 1-2 BUSINESS DAYS. IF THE GUEST REFUSES TO PAY THE DIFFERENCE THEN YOU WILL NEED TO NOTIFY ON YOUR ON SHIFT SUPERVISOR SO THEY CAN GET A VOUCHER FROM US TO PAY THE DIFFERENCE. THIS IS FOR SITE ERRORS AND SALES AGENT ERRORS THAT WE CAN SUPPORT THE DIFFERENCE IN COST.</t>
+      <t xml:space="preserve">IF THE RESERVATION IS MORE YOU WILL ASK THE GUEST TO PAY THE DIFFERNCE AND OPEN A TICKET FOR SUPERVISOR REVIEW. OCCUPANCY ERROR FROM SALES AGENTS WILL BE REFUNDED TO THE GUEST; PLEASE ADVISE THE GUEST OF THIS AND LET THEM KNOW IT WILL BE REVIEWED IN 1-2 BUSINESS DAYS. IF THE GUEST REFUSES TO PAY THE DIFFERENCE THEN YOU WILL NEED TO NOTIFY ON YOUR ON SHIFT SUPERVISOR SO THEY CAN GET A VOUCHER FROM US TO PAY THE DIFFERENCE. THIS IS FOR SITE ERRORS AND SALES AGENT ERRORS THAT WE CAN SUPPORT THE DIFFERENCE IN COST. IF THE OCCUPANCY ERROR IS FROM A GUEST SELF-BOOKING THEMSELVES THESE WILL MOST LIKELY WILL NOT RECEVIE REIMBURSEMENT. </t>
     </r>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
   <si>
     <t>Payment declined at check-in despite prepayment</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Call Supplier, 2. If unpaid by the Supplier in 20 minutes, 3. Create a Voucher and Rebook (if current hotel has inventory) or Relocate by Booking at a near by hotel. ** Do your best to upgrade the client's room type  to use full voucher value for their new reservation** The exception would be in they are lowering the number of nights they will expect a refund of the unused night(s). If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 5. Call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 5. If the guest declines support and requests a refund; then call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 6. Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). </t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Call Supplier, 2. If unpaid by the Supplier in 20 minutes 3. Create a Voucher and Rebook (if current hotel has inventory) or Relocate by Booking at a near by hotel. ** Do your best to upgrade the client's room type  to use full voucher value for their new reservation** The exception would be in they are lowering the number of nights they will expect a refund of the unused night(s). If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 5. Call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 5. If the guest declines support and requests a refund; then call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 6. Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+      </rPr>
+      <t>EXCEPTION IS DERBYSOFT ** INSTEAD OF CALLING THE SUPPLIER** ASK THE CHANNEL MANAGER FOR THE VIRTUAL CARD. IF NOT PROVIDED IN 20 MINUTES; MOVE FORWARD WITH REBOOKING THE GUEST.</t>
+    </r>
+  </si>
+  <si>
+    <t>YES - Only for same day check in's AND DERBYSOFT. DERBYSOFT VIRTUAL CARDS WILL COME FROM HOTELPLANNER. NO SLACK FOR FUTURE DATES.</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>Rebooking due to wrong hotel booked or modifying to a new hotel</t>
@@ -251,9 +274,6 @@
     </r>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Shuttle not available to get to property</t>
   </si>
   <si>
@@ -293,6 +313,23 @@
     <t>Duplicate bookings made accidentally</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">ASK THE HOTELS TO CANCEL DUPLICATES: Please call the hotel and obtain FOC, note the booking accurately with the hotel staff member 's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 7. Process a refund via the queue for the client and advise them of the refund timeline (2-7 business days). </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>** Only refund if applicable - if you are cancelling a duplicate that is only visible in the hotel's data base but not in our platform then the guest was not charged twice and no refund would be processed.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">YES </t>
   </si>
   <si>
@@ -302,30 +339,13 @@
     <t>1. Call the hotel and ask them to move the guest to the appropriate room or requested room type 2. If the hotel refuses to do the change complimentary then ask them how much the upgrade or room change will cost. If the hotel agrees to charge a fee or the upgrade then advise the guest to pay the charge upon arrival. Ask the guest to email the receipt of the charge to Reservations@HotelPlanner.com for reimbursement. 3. If the hotel refuses all changes and requires a new reservation, confirm with the front desk the property has availabitlity if we rebook the guest for the correct room type, once the hotel confirms they do, request a cancellation on the existing room for FOC to rebook the guest, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 4. Advise the guest you will rebook them for the correct room if the guest agrees, create a voucher and rebook them for their preferred room type. ** Do your best to upgrade the client's room type to use full voucher value for their new reservation** If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 6. If the guest declines support then call the hotel and obtain FOC, note the booking accurately with the hotel staff member 's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 7. Process a refund via the queue for the client and advise them of the refund timeline (2-7 business days).</t>
   </si>
   <si>
+    <t>Yes - Only for same day check in's. NO SLACK FOR FUTURE DATES.</t>
+  </si>
+  <si>
     <t>Promised amenities missing (breakfast, parking, Wi-Fi, view)</t>
   </si>
   <si>
     <t>Rate does not include expected inclusions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pricing &amp; Payment Issues </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Call Supplier, 2. If unpaid by the Supplier in 20 minutes 3. Create a Voucher and Rebook (if current hotel has inventory) or Relocate by Booking at a near by hotel. ** Do your best to upgrade the client's room type  to use full voucher value for their new reservation** The exception would be in they are lowering the number of nights they will expect a refund of the unused night(s). If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 5. Call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 5. If the guest declines support and requests a refund; then call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 6. Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF0000FF"/>
-      </rPr>
-      <t>EXCEPTION IS DERBYSOFT ** INSTEAD OF CALLING THE SUPPLIER** ASK THE CHANNEL MANAGER FOR THE VIRTUAL CARD. IF NOT PROVIDED IN 20 MINUTES; MOVE FORWARD WITH REBOOKING THE GUEST.</t>
-    </r>
   </si>
   <si>
     <t>Hotel requests payment again for a prepaid booking</t>
@@ -575,9 +595,6 @@
     <t xml:space="preserve">Please ask the guest to forward their charges to Reservations@HotelPlanner.com, please stay connected to the guest while they send this over and let them know we will have an update in 24 hours. Confirm we have the guests correct email and make sure the notes are accurate and complete. </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Mismatch between listing description and actual property</t>
   </si>
   <si>
@@ -617,10 +634,7 @@
     <t xml:space="preserve">If the guest requests for this plan to be cancelled and refunded, please click on void the policy and the refund will be processed automatically. If it's outside the 14 days to select "void" then you will note the booking accurately and process the refund amount only of the RPP in the Refund Queue. </t>
   </si>
   <si>
-    <t>VIPRES</t>
-  </si>
-  <si>
-    <t>Overbooking leading to relocation (“walked” reservation)</t>
+    <t>** Ticket Agents will need to contact the guests via the outbound phone when supporting, booking or rebooking the guest **</t>
   </si>
   <si>
     <r>
@@ -746,7 +760,24 @@
         <b/>
         <color rgb="FF0000FF"/>
       </rPr>
-      <t>IF THE RESERVATION IS MORE YOU WILL ASK THE GUEST TO PAY THE DIFFERNCE AND OPEN A TICKET FOR SUPERVISOR REVIEW. OCCUPANCY ERROR FROM SALES AGENTS WILL BE REFUNDED TO THE GUEST; PLEASE ADVISE THE GUEST OF THIS AND LET THEM KNOW IT WILL BE REVIEWED IN 1-2 BUSINESS DAYS. IF THE GUEST REFUSES TO PAY THE DIFFERENCE THEN YOU WILL NEED TO NOTIFY ON YOUR ON SHIFT SUPERVISOR SO THEY CAN GET A VOUCHER FROM US TO PAY THE DIFFERENCE. THIS IS FOR SITE ERRORS AND SALES AGENT ERRORS THAT WE CAN SUPPORT THE DIFFERENCE IN COST.</t>
+      <t xml:space="preserve">IF THE RESERVATION IS MORE YOU WILL ASK THE GUEST TO PAY THE DIFFERNCE AND OPEN A TICKET FOR SUPERVISOR REVIEW. OCCUPANCY ERROR FROM SALES AGENTS WILL BE REFUNDED TO THE GUEST; PLEASE ADVISE THE GUEST OF THIS AND LET THEM KNOW IT WILL BE REVIEWED IN 1-2 BUSINESS DAYS. IF THE GUEST REFUSES TO PAY THE DIFFERENCE THEN YOU WILL NEED TO NOTIFY ON YOUR ON SHIFT SUPERVISOR SO THEY CAN GET A VOUCHER FROM US TO PAY THE DIFFERENCE. THIS IS FOR SITE ERRORS AND SALES AGENT ERRORS THAT WE CAN SUPPORT THE DIFFERENCE IN COST. IF THE OCCUPANCY ERROR IS FROM A GUEST SELF-BOOKING THEMSELVES THESE WILL MOST LIKELY WILL NOT RECEVIE REIMBURSEMENT. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">1. Call Supplier, 2. If unpaid by the Supplier in 20 minutes 3. Create a Voucher and Rebook (if current hotel has inventory) or Relocate by Booking at a near by hotel. ** Do your best to upgrade the client's room type  to use full voucher value for their new reservation** The exception would be in they are lowering the number of nights they will expect a refund of the unused night(s). If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 5. Call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 5. If the guest declines support and requests a refund; then call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 6. Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF0000FF"/>
+      </rPr>
+      <t>EXCEPTION IS DERBYSOFT ** INSTEAD OF CALLING THE SUPPLIER** ASK THE CHANNEL MANAGER FOR THE VIRTUAL CARD. IF NOT PROVIDED IN 20 MINUTES; MOVE FORWARD WITH REBOOKING THE GUEST.</t>
     </r>
   </si>
   <si>
@@ -795,15 +826,15 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">1. Call Supplier, 2. If unpaid by the Supplier in 20 minutes 3. Create a Voucher and Rebook (if current hotel has inventory) or Relocate by Booking at a near by hotel. ** Do your best to upgrade the client's room type  to use full voucher value for their new reservation** The exception would be in they are lowering the number of nights they will expect a refund of the unused night(s). If there are any unused funds; Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). 5. Call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 5. If the guest declines support and requests a refund; then call the hotel and obtain FOC, note the booking accurately with the hotel staff member's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 6. Process a refund via the queue for the client and advise of the refund timeline (2-7 business days). </t>
+      <t xml:space="preserve">ASK THE HOTELS TO CANCEL DUPLICATES: Please call the hotel and obtain FOC, note the booking accurately with the hotel staff member 's name, (if possible) the cancellation number, and the email address for the hotel manager or front desk. If you do not obtain FOC, take down hotel staff member's name and email address for the property. 7. Process a refund via the queue for the client and advise them of the refund timeline (2-7 business days). </t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF0000FF"/>
+        <i/>
+        <color theme="1"/>
       </rPr>
-      <t>EXCEPTION IS DERBYSOFT ** INSTEAD OF CALLING THE SUPPLIER** ASK THE CHANNEL MANAGER FOR THE VIRTUAL CARD. IF NOT PROVIDED IN 20 MINUTES; MOVE FORWARD WITH REBOOKING THE GUEST.</t>
+      <t>** Only refund if applicable - if you are cancelling a duplicate that is only visible in the hotel's data base but not in our platform then the guest was not charged twice and no refund would be processed.</t>
     </r>
   </si>
   <si>
@@ -829,9 +860,6 @@
       </rPr>
       <t xml:space="preserve">. </t>
     </r>
-  </si>
-  <si>
-    <t>YES  (If unresolved in the call)</t>
   </si>
   <si>
     <r>
@@ -874,9 +902,6 @@
     </r>
   </si>
   <si>
-    <t>Reassigne to VIPRES@HotelPlanner</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -916,12 +941,6 @@
     </r>
   </si>
   <si>
-    <t>YES - only for option 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early departure after check in </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -944,27 +963,6 @@
       </rPr>
       <t>"</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Promised accessible or handicapped room was not provided </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Offer the guest 15% compensation if they utilized the room and create the refund request in the refund queue. If the guest was not able to use the room issue a refund via the refund queue. Note the booking accurately and in detail. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Call Review Needed </t>
-  </si>
-  <si>
-    <t>Move these over to the Clean up Tab</t>
-  </si>
-  <si>
-    <t>Clean Up Tab</t>
-  </si>
-  <si>
-    <t>Legal or Government Complaints</t>
-  </si>
-  <si>
-    <t>Move these over to VIPRES</t>
   </si>
   <si>
     <t>When requesting FOC or Partial Unused Rooms</t>
@@ -992,6 +990,30 @@
   </si>
   <si>
     <t xml:space="preserve">** key for this step is in avoiding disputes </t>
+  </si>
+  <si>
+    <t>If a guest declines service support and uses their own card to rebook themselves</t>
+  </si>
+  <si>
+    <t>Please have them email their receipt to Reservations@HotelPlanner.com to determine if reimbursement is available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Cancellations </t>
+  </si>
+  <si>
+    <t>We will always offer to rebook the guest</t>
+  </si>
+  <si>
+    <t>**never leave them without the support they are needing.</t>
+  </si>
+  <si>
+    <t>If the originial booking was made by a voucher</t>
+  </si>
+  <si>
+    <t>If the booking is made with a voucher: Follow the same instructions for the escalation reason but you will need to ask the channel manager for a voucher to rebook with a new voucher or refund.</t>
+  </si>
+  <si>
+    <t>IF VOUCHER REQUEST IS UNANSWERED IN 15 MINUTES</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1056,7 @@
       <name val="&quot;Calibri Light&quot;"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1045,12 +1067,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFC000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1187,6 +1203,20 @@
       </bottom>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1201,29 +1231,21 @@
       </bottom>
     </border>
     <border>
-      <top style="thick">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1269,9 +1291,6 @@
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1287,59 +1306,32 @@
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1608,7 +1600,9 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1637,7 +1631,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1694,22 +1688,22 @@
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1734,22 +1728,22 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1774,22 +1768,22 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>9</v>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1814,22 +1808,22 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>9</v>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1854,22 +1848,22 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>9</v>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1894,22 +1888,22 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>9</v>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1933,23 +1927,23 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
+      <c r="B11" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1974,19 +1968,19 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>9</v>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>27</v>
@@ -2014,19 +2008,19 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>27</v>
@@ -2054,10 +2048,10 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>27</v>
@@ -2066,7 +2060,7 @@
         <v>27</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>27</v>
@@ -2094,19 +2088,19 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>27</v>
@@ -2134,19 +2128,19 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>27</v>
@@ -2174,19 +2168,19 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>27</v>
@@ -2214,19 +2208,19 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>27</v>
@@ -2254,17 +2248,19 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="D19" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>27</v>
@@ -2292,19 +2288,19 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>27</v>
@@ -2332,19 +2328,19 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>27</v>
@@ -2372,19 +2368,19 @@
     <row r="22">
       <c r="A22" s="1"/>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>27</v>
@@ -2411,23 +2407,23 @@
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="16" t="s">
-        <v>46</v>
+      <c r="B23" s="14" t="s">
+        <v>50</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>2</v>
+      <c r="C23" s="12" t="s">
+        <v>51</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>3</v>
+      <c r="D23" s="13" t="s">
+        <v>13</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>4</v>
+      <c r="E23" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>5</v>
+      <c r="F23" s="13" t="s">
+        <v>52</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>6</v>
+      <c r="G23" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2452,19 +2448,19 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>27</v>
@@ -2492,19 +2488,19 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>27</v>
@@ -2532,19 +2528,19 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>27</v>
@@ -2572,19 +2568,19 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>27</v>
@@ -2612,19 +2608,19 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>27</v>
@@ -2652,22 +2648,22 @@
     <row r="29">
       <c r="A29" s="1"/>
       <c r="B29" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="F29" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2691,23 +2687,23 @@
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="14" t="s">
-        <v>57</v>
+      <c r="B30" s="15" t="s">
+        <v>63</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>58</v>
+      <c r="C30" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>27</v>
+      <c r="D30" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>10</v>
+      <c r="E30" s="18" t="s">
+        <v>5</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>11</v>
+      <c r="F30" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="G30" s="13" t="s">
-        <v>27</v>
+      <c r="G30" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2732,22 +2728,22 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2771,23 +2767,23 @@
     </row>
     <row r="32">
       <c r="A32" s="1"/>
-      <c r="B32" s="16" t="s">
-        <v>61</v>
+      <c r="B32" s="14" t="s">
+        <v>68</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>2</v>
+      <c r="C32" s="12" t="s">
+        <v>69</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>3</v>
+      <c r="D32" s="13" t="s">
+        <v>19</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>4</v>
+      <c r="E32" s="13" t="s">
+        <v>66</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>5</v>
+      <c r="F32" s="13" t="s">
+        <v>70</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>6</v>
+      <c r="G32" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2812,22 +2808,22 @@
     <row r="33">
       <c r="A33" s="1"/>
       <c r="B33" s="14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>63</v>
+      <c r="C33" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2851,23 +2847,23 @@
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="14" t="s">
-        <v>66</v>
+      <c r="B34" s="15" t="s">
+        <v>73</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>67</v>
+      <c r="C34" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>17</v>
+      <c r="D34" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>64</v>
+      <c r="E34" s="18" t="s">
+        <v>5</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>68</v>
+      <c r="F34" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>17</v>
+      <c r="G34" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2892,22 +2888,22 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>70</v>
+      <c r="C35" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="G35" s="13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2931,23 +2927,23 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="16" t="s">
-        <v>71</v>
+      <c r="B36" s="14" t="s">
+        <v>77</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>2</v>
+      <c r="C36" s="12" t="s">
+        <v>78</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>3</v>
+      <c r="D36" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>4</v>
+      <c r="E36" s="13" t="s">
+        <v>79</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>5</v>
+      <c r="F36" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>6</v>
+      <c r="G36" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2972,19 +2968,19 @@
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>27</v>
@@ -3012,19 +3008,19 @@
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>27</v>
@@ -3052,19 +3048,19 @@
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>27</v>
@@ -3092,10 +3088,10 @@
     <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="14" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>27</v>
@@ -3104,10 +3100,10 @@
         <v>27</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3131,23 +3127,23 @@
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="14" t="s">
-        <v>82</v>
+      <c r="B41" s="15" t="s">
+        <v>88</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>83</v>
+      <c r="C41" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>27</v>
+      <c r="D41" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>27</v>
+      <c r="E41" s="18" t="s">
+        <v>5</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>11</v>
+      <c r="F41" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="G41" s="13" t="s">
-        <v>27</v>
+      <c r="G41" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3172,10 +3168,10 @@
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>27</v>
@@ -3184,10 +3180,10 @@
         <v>27</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3211,23 +3207,23 @@
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="16" t="s">
-        <v>86</v>
+      <c r="B43" s="14" t="s">
+        <v>91</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>2</v>
+      <c r="C43" s="12" t="s">
+        <v>58</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>3</v>
+      <c r="D43" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>4</v>
+      <c r="E43" s="13" t="s">
+        <v>13</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>5</v>
+      <c r="F43" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>6</v>
+      <c r="G43" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3252,10 +3248,10 @@
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>27</v>
@@ -3264,7 +3260,7 @@
         <v>27</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>27</v>
@@ -3292,19 +3288,19 @@
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>27</v>
@@ -3332,10 +3328,10 @@
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>27</v>
@@ -3344,7 +3340,7 @@
         <v>27</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>27</v>
@@ -3372,10 +3368,10 @@
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>27</v>
@@ -3384,7 +3380,7 @@
         <v>27</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>27</v>
@@ -3412,10 +3408,10 @@
     <row r="48">
       <c r="A48" s="1"/>
       <c r="B48" s="14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>27</v>
@@ -3424,7 +3420,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>27</v>
@@ -3451,20 +3447,20 @@
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="14" t="s">
-        <v>97</v>
+      <c r="B49" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>27</v>
@@ -3490,23 +3486,21 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>100</v>
+      <c r="A50" s="1"/>
+      <c r="B50" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>27</v>
@@ -3533,24 +3527,12 @@
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3573,24 +3555,12 @@
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3755,10 +3725,10 @@
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3783,10 +3753,10 @@
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -30855,62 +30825,6 @@
       <c r="Y1025" s="1"/>
       <c r="Z1025" s="1"/>
     </row>
-    <row r="1026">
-      <c r="A1026" s="1"/>
-      <c r="B1026" s="2"/>
-      <c r="C1026" s="3"/>
-      <c r="D1026" s="1"/>
-      <c r="E1026" s="1"/>
-      <c r="F1026" s="1"/>
-      <c r="G1026" s="1"/>
-      <c r="H1026" s="1"/>
-      <c r="I1026" s="1"/>
-      <c r="J1026" s="1"/>
-      <c r="K1026" s="1"/>
-      <c r="L1026" s="1"/>
-      <c r="M1026" s="1"/>
-      <c r="N1026" s="1"/>
-      <c r="O1026" s="1"/>
-      <c r="P1026" s="1"/>
-      <c r="Q1026" s="1"/>
-      <c r="R1026" s="1"/>
-      <c r="S1026" s="1"/>
-      <c r="T1026" s="1"/>
-      <c r="U1026" s="1"/>
-      <c r="V1026" s="1"/>
-      <c r="W1026" s="1"/>
-      <c r="X1026" s="1"/>
-      <c r="Y1026" s="1"/>
-      <c r="Z1026" s="1"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="1"/>
-      <c r="B1027" s="2"/>
-      <c r="C1027" s="3"/>
-      <c r="D1027" s="1"/>
-      <c r="E1027" s="1"/>
-      <c r="F1027" s="1"/>
-      <c r="G1027" s="1"/>
-      <c r="H1027" s="1"/>
-      <c r="I1027" s="1"/>
-      <c r="J1027" s="1"/>
-      <c r="K1027" s="1"/>
-      <c r="L1027" s="1"/>
-      <c r="M1027" s="1"/>
-      <c r="N1027" s="1"/>
-      <c r="O1027" s="1"/>
-      <c r="P1027" s="1"/>
-      <c r="Q1027" s="1"/>
-      <c r="R1027" s="1"/>
-      <c r="S1027" s="1"/>
-      <c r="T1027" s="1"/>
-      <c r="U1027" s="1"/>
-      <c r="V1027" s="1"/>
-      <c r="W1027" s="1"/>
-      <c r="X1027" s="1"/>
-      <c r="Y1027" s="1"/>
-      <c r="Z1027" s="1"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30926,7 +30840,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.25"/>
+    <col customWidth="1" min="1" max="1" width="3.63"/>
     <col customWidth="1" min="2" max="2" width="43.75"/>
     <col customWidth="1" min="3" max="3" width="83.25"/>
     <col customWidth="1" min="4" max="4" width="30.25"/>
@@ -30965,7 +30879,9 @@
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -31020,12 +30936,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -31048,27 +30976,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>2</v>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>4</v>
+      <c r="E5" s="11" t="s">
+        <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>5</v>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
+      <c r="G5" s="11" t="s">
+        <v>13</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>106</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -31091,24 +31017,24 @@
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="E6" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -31131,24 +31057,24 @@
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>9</v>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>17</v>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -31171,24 +31097,24 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>9</v>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>17</v>
+      <c r="F8" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -31211,24 +31137,24 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>9</v>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
+      <c r="F9" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -31250,25 +31176,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
-        <v>20</v>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -31290,25 +31216,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="9" t="s">
-        <v>23</v>
+      <c r="B11" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>9</v>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -31330,25 +31256,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="14" t="s">
-        <v>25</v>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>27</v>
+      <c r="F12" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="26"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -31371,24 +31297,24 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>27</v>
+      <c r="F13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -31411,24 +31337,24 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>27</v>
+      <c r="F14" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="26"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -31451,24 +31377,24 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>27</v>
+      <c r="F15" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="26"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -31491,24 +31417,24 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>27</v>
+      <c r="F16" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -31531,24 +31457,24 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>27</v>
+      <c r="F17" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -31571,24 +31497,24 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>27</v>
+      <c r="F18" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="26"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -31611,22 +31537,24 @@
     <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="D19" s="13" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>27</v>
+      <c r="F19" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -31649,24 +31577,24 @@
     <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>27</v>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -31689,24 +31617,24 @@
     <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>27</v>
+      <c r="F21" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -31728,25 +31656,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="9" t="s">
-        <v>45</v>
+      <c r="B22" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="F22" s="13" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -31768,27 +31696,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="16" t="s">
-        <v>46</v>
+      <c r="B23" s="14" t="s">
+        <v>53</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>2</v>
+      <c r="C23" s="12" t="s">
+        <v>38</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>3</v>
+      <c r="D23" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>4</v>
+      <c r="E23" s="13" t="s">
+        <v>32</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>5</v>
+      <c r="F23" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>6</v>
+      <c r="G23" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>106</v>
-      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -31811,24 +31737,24 @@
     <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -31851,24 +31777,24 @@
     <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="14" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="26"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -31891,24 +31817,24 @@
     <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -31931,24 +31857,24 @@
     <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="26"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -31971,24 +31897,24 @@
     <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="F28" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -32010,25 +31936,25 @@
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="14" t="s">
-        <v>55</v>
+      <c r="B29" s="15" t="s">
+        <v>63</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>56</v>
+      <c r="C29" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>27</v>
+      <c r="D29" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>22</v>
+      <c r="E29" s="18" t="s">
+        <v>5</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>27</v>
+      <c r="F29" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="G29" s="13" t="s">
-        <v>27</v>
+      <c r="G29" s="17" t="s">
+        <v>7</v>
       </c>
-      <c r="H29" s="26"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -32051,24 +31977,24 @@
     <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -32091,26 +32017,24 @@
     <row r="31">
       <c r="A31" s="1"/>
       <c r="B31" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
-      <c r="H31" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -32132,27 +32056,25 @@
     </row>
     <row r="32">
       <c r="A32" s="1"/>
-      <c r="B32" s="16" t="s">
-        <v>61</v>
+      <c r="B32" s="14" t="s">
+        <v>71</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>2</v>
+      <c r="C32" s="19" t="s">
+        <v>72</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>3</v>
+      <c r="D32" s="13" t="s">
+        <v>16</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>4</v>
+      <c r="E32" s="13" t="s">
+        <v>66</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>5</v>
+      <c r="F32" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>6</v>
+      <c r="G32" s="13" t="s">
+        <v>19</v>
       </c>
-      <c r="H32" s="18" t="s">
-        <v>106</v>
-      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -32174,27 +32096,25 @@
     </row>
     <row r="33">
       <c r="A33" s="1"/>
-      <c r="B33" s="14" t="s">
-        <v>62</v>
+      <c r="B33" s="15" t="s">
+        <v>73</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>116</v>
+      <c r="C33" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>27</v>
+      <c r="D33" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>27</v>
+      <c r="E33" s="18" t="s">
+        <v>5</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>27</v>
+      <c r="F33" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>27</v>
+      <c r="G33" s="17" t="s">
+        <v>7</v>
       </c>
-      <c r="H33" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -32217,26 +32137,24 @@
     <row r="34">
       <c r="A34" s="1"/>
       <c r="B34" s="14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -32259,24 +32177,24 @@
     <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>70</v>
+      <c r="C35" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="26"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -32298,27 +32216,25 @@
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="16" t="s">
-        <v>71</v>
+      <c r="B36" s="14" t="s">
+        <v>80</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>2</v>
+      <c r="C36" s="12" t="s">
+        <v>38</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>3</v>
+      <c r="D36" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>4</v>
+      <c r="E36" s="13" t="s">
+        <v>81</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>5</v>
+      <c r="F36" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="G36" s="18" t="s">
-        <v>6</v>
+      <c r="G36" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="H36" s="18" t="s">
-        <v>106</v>
-      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -32341,19 +32257,19 @@
     <row r="37">
       <c r="A37" s="1"/>
       <c r="B37" s="14" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>27</v>
@@ -32381,19 +32297,19 @@
     <row r="38">
       <c r="A38" s="1"/>
       <c r="B38" s="14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>27</v>
@@ -32421,24 +32337,24 @@
     <row r="39">
       <c r="A39" s="1"/>
       <c r="B39" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
-      <c r="H39" s="26"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -32460,25 +32376,25 @@
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="14" t="s">
-        <v>80</v>
+      <c r="B40" s="15" t="s">
+        <v>88</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>81</v>
+      <c r="C40" s="16" t="s">
+        <v>3</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>27</v>
+      <c r="D40" s="17" t="s">
+        <v>4</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>27</v>
+      <c r="E40" s="18" t="s">
+        <v>5</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>27</v>
+      <c r="F40" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="G40" s="13" t="s">
-        <v>27</v>
+      <c r="G40" s="17" t="s">
+        <v>7</v>
       </c>
-      <c r="H40" s="26"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -32501,10 +32417,10 @@
     <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="14" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>27</v>
@@ -32513,12 +32429,12 @@
         <v>27</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G41" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="26"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -32541,24 +32457,24 @@
     <row r="42">
       <c r="A42" s="1"/>
       <c r="B42" s="14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="26"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -32580,27 +32496,25 @@
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="16" t="s">
-        <v>86</v>
+      <c r="B43" s="14" t="s">
+        <v>92</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>2</v>
+      <c r="C43" s="12" t="s">
+        <v>93</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>3</v>
+      <c r="D43" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="E43" s="19" t="s">
-        <v>4</v>
+      <c r="E43" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>5</v>
+      <c r="F43" s="13" t="s">
+        <v>12</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>6</v>
+      <c r="G43" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="H43" s="18" t="s">
-        <v>106</v>
-      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -32623,10 +32537,10 @@
     <row r="44">
       <c r="A44" s="1"/>
       <c r="B44" s="14" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>27</v>
@@ -32635,12 +32549,12 @@
         <v>27</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G44" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="26"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -32663,24 +32577,24 @@
     <row r="45">
       <c r="A45" s="1"/>
       <c r="B45" s="14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="G45" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="26"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -32703,10 +32617,10 @@
     <row r="46">
       <c r="A46" s="1"/>
       <c r="B46" s="14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>27</v>
@@ -32715,12 +32629,12 @@
         <v>27</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="26"/>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -32743,10 +32657,10 @@
     <row r="47">
       <c r="A47" s="1"/>
       <c r="B47" s="14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>27</v>
@@ -32755,12 +32669,12 @@
         <v>27</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="26"/>
+      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -32782,27 +32696,25 @@
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="14" t="s">
-        <v>94</v>
+      <c r="B48" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="27" t="s">
-        <v>22</v>
-      </c>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -32824,25 +32736,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="14" t="s">
-        <v>97</v>
+      <c r="B49" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="26"/>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -32863,28 +32775,14 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="26"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -32906,25 +32804,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="26"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -32946,25 +32832,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="26"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -32986,25 +32860,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1"/>
-      <c r="B53" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="26"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -33025,88 +32887,60 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="28"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
-      <c r="V54" s="28"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28"/>
-      <c r="Z54" s="28"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
     </row>
     <row r="55">
-      <c r="A55" s="28"/>
-      <c r="B55" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
@@ -33140,10 +32974,10 @@
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -33168,10 +33002,10 @@
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -33196,10 +33030,10 @@
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -33224,10 +33058,10 @@
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -33252,10 +33086,10 @@
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -60395,43 +60229,140 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="37.63"/>
-    <col customWidth="1" min="3" max="3" width="98.13"/>
-    <col customWidth="1" min="4" max="4" width="60.63"/>
+    <col customWidth="1" min="1" max="1" width="37.63"/>
+    <col customWidth="1" min="2" max="2" width="98.13"/>
+    <col customWidth="1" min="3" max="3" width="60.63"/>
   </cols>
   <sheetData>
     <row r="4">
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="36" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="B8" s="26" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="35" t="s">
+      <c r="C8" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="36" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="B11" s="22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="35" t="s">
+      <c r="C11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>135</v>
+      <c r="F11" s="22" t="s">
+        <v>13</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>136</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
